--- a/docker-depoly/hw2_requirements.xlsx
+++ b/docker-depoly/hw2_requirements.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backup\WeChat Files\WeChat Files\q939611203\FileStorage\MsgAttach\2655e734f7552a022d40ec50721216cb\File\2023-02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74288374-E50D-48F1-AC40-353F411E7878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="5080" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Requirements</t>
   </si>
@@ -43,6 +37,9 @@
     <t>1.1 support GET</t>
   </si>
   <si>
+    <t>For most of the public http websites, we can access without much problem, but for the ones we generate from flask, we may encounter the problem that the content part of the response, cannot be received sometimes, so we need to try several times, which will be also discussed in the testcases.txt</t>
+  </si>
+  <si>
     <t>1.2 support POST</t>
   </si>
   <si>
@@ -52,22 +49,25 @@
     <t>2. You should cache appropriate responses</t>
   </si>
   <si>
+    <t>If the either request or response declare the no-store or private, which means we cannot cache this response</t>
+  </si>
+  <si>
     <t>2.1 You should follow rules of expiration time</t>
   </si>
   <si>
-    <t>The expire time is based on max-age in Cache-control and the Expires tags</t>
+    <t>The expire time will be calculated based on both request and response's max-age, and also the max-stale and min-fresh in the request will be considered while calculating the freshness. In addition if there is no above fields are specified, the EXPIRES field will also take into account for if a cached response is expired or not.</t>
   </si>
   <si>
     <t>2.2 You should follow rules of re-validation</t>
   </si>
   <si>
-    <t>The revalidation will happen if the cached response is expired, or it is declared by either request or response with the must-revalidate or no-cache field</t>
+    <t xml:space="preserve">The revalidation will happen if the cached response is expired, or it is declared by either request or response with the must-revalidate or no-cache field. </t>
   </si>
   <si>
     <t xml:space="preserve">2.3 Please specify your cache policy (e.g. cache size, replacement policy, when to clean expired reponse) </t>
   </si>
   <si>
-    <t>The cached size is defined as a number of cached response, and the replacement is based on the LRU policy, the expired response, will not be cleaned, but will update when it is get by a request</t>
+    <t>The cached size is defined as a number of cached response, and the replacement is based on the LRU policy, for the least recently used response we will evicated it. For the expired response, will not be cleaned immediatly, the time we need to check it and found it is expired, then we will update with the new response we got from the server.</t>
   </si>
   <si>
     <t>3 You should utilize concurrency</t>
@@ -76,7 +76,7 @@
     <t>3.1 Do you spawn a thread/process to handle a request?</t>
   </si>
   <si>
-    <t>Each request will be assigned to a single thread to handle the whole process</t>
+    <t>Each request will be assigned to a single thread to handle the whole process, and then this thread will be detached from the main program and finish themselves</t>
   </si>
   <si>
     <t>3.2 Did do you appropriately handle necessary synchronization for your cache (note a simple strategy like "using a mutex to lock to protect the entire cache for every operation" might not be the prefect answer from our perspective)</t>
@@ -91,7 +91,19 @@
     <t xml:space="preserve">5 You should organize your code in good C++ style. </t>
   </si>
   <si>
-    <t xml:space="preserve"> We constructed several classes for different objects, the fields are defined as private, to get the fields value, it can only be accessed by the const method to protect the data after construction</t>
+    <t xml:space="preserve"> We constructed several classes for different objects, the fields are defined as private, to get the fields value, it can only be accessed by the const method to protect the data after construction. For the main functions are almost all the member function in the Proxy class, which will show integrated and object-oriented design, and only allowed the member function to modify the fields.</t>
+  </si>
+  <si>
+    <t>6.Your code should be robust to external failures. (i.e. What failures did you handle in your code? how do you handle them? You can answer these in your danger log.)</t>
+  </si>
+  <si>
+    <t>For the Dameon process, we use the docker to call the bash file and the bash file contains the while true operation. Therefore, even the process dumped by some interrupt. It will restart and and keep running, also if the docker is composed up in -d which will also remove the tty.</t>
+  </si>
+  <si>
+    <t>7.You should know the exception guarantees you make (Please specify them (within your danger log).</t>
+  </si>
+  <si>
+    <t>We use try catch for every error and use unique_pointer and thread to enable RAII, for the member function some we will have no-throw guarantee, and we will have the try catch in the main function called by the thread, which could ensure this function is also no-throw, the main function will be protected. The unique pointer could help to clean the objects in memory, no matter the thread exit in normal or due to the exception, which will cause a memory leak</t>
   </si>
   <si>
     <t>8.You should setup docker for submission, per the requirement</t>
@@ -103,27 +115,20 @@
     <t>Any extra tests you would like to mention?</t>
   </si>
   <si>
-    <t>6.Your code should be robust to external failures. (i.e. What failures did you handle in your code? how do you handle them? You can answer these in your danger log.)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.You should know the exception guarantees you make (Please specify them (within your danger log).</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>For the Dameon process, we use the docker to call the bash file and the bash file contains the while true operation. Therefore, even the process dumped by some interrupt. It will restart and and keep running.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>We use try catch for every error and use unique_pointer and thread to enable RAII</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>The extra tests we provided in the testcases some are generated by flask, the response may not be 100% complete response as mentioned above, it may requires multiple try even the browser need to restart to try, but the normal public are fine to test.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -133,29 +138,355 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,9 +494,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -176,19 +749,63 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -446,26 +1063,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4553571428571" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="65.90625" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="62.81640625" customWidth="1"/>
+    <col min="1" max="1" width="65.9107142857143" customWidth="1"/>
+    <col min="2" max="2" width="26.9107142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" ht="24" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="16" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -487,132 +1104,138 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="16" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="16" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="16" customHeight="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="16" customHeight="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="55" customHeight="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="16" customHeight="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:3">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" ht="31" customHeight="1" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -620,32 +1243,38 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="16" customHeight="1" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="16" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>